--- a/src/test/resources/testdata/WriteLettersPage_001_WriteLetterAndSendSuccess.xlsx
+++ b/src/test/resources/testdata/WriteLettersPage_001_WriteLetterAndSendSuccess.xlsx
@@ -18,23 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>addressee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WritingContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,11 +27,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>exeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>upload1.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>helloxwr@126.com</t>
+    <t>addressee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helloxwr@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,19 +117,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -423,43 +434,44 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -469,7 +481,7 @@
     <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
